--- a/Tp 1 Sendra.xlsx
+++ b/Tp 1 Sendra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nueva 1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1009,11 +1009,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
@@ -1073,11 +1076,11 @@
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B12" si="0">SUM(D3*3,E3)</f>
+        <f>(D3*3+E3)</f>
         <v>27</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C12" si="1">SUM(D3:F3)</f>
+        <f t="shared" ref="C3:C12" si="0">SUM(D3:F3)</f>
         <v>14</v>
       </c>
       <c r="D3" s="2">
@@ -1096,22 +1099,22 @@
         <v>10</v>
       </c>
       <c r="I3" s="2">
-        <f>SUM(G3,-H3)</f>
+        <f>(G3-H3)</f>
         <v>16</v>
       </c>
       <c r="J3" s="2">
-        <f>AVERAGE(C3,D3)</f>
-        <v>10.5</v>
+        <f>(C3*100/B3)</f>
+        <v>51.851851851851855</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
+        <f>(D4*3+E4)</f>
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D4" s="2">
@@ -1130,22 +1133,22 @@
         <v>14</v>
       </c>
       <c r="I4" s="2">
-        <f>SUM(G4,-H4)</f>
+        <f>(G4-H4)</f>
         <v>11</v>
       </c>
       <c r="J4" s="2">
-        <f>AVERAGE(C4,D4)</f>
-        <v>10.5</v>
+        <f>(C4*100/B4)</f>
+        <v>53.846153846153847</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
+        <f>(D5*3+E5)</f>
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D5" s="2">
@@ -1164,22 +1167,22 @@
         <v>15</v>
       </c>
       <c r="I5" s="2">
-        <f>SUM(G5,-H5)</f>
+        <f>(G5-H5)</f>
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <f>AVERAGE(C5,D5)</f>
-        <v>10.5</v>
+        <f>(C5*100/B5)</f>
+        <v>53.846153846153847</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
+        <f>(D6*3+E6)</f>
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D6" s="2">
@@ -1198,22 +1201,22 @@
         <v>13</v>
       </c>
       <c r="I6" s="2">
-        <f>SUM(G6,-H6)</f>
+        <f>(G6-H6)</f>
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f>AVERAGE(C6,D6)</f>
-        <v>10</v>
+        <f>(C6*100/B6)</f>
+        <v>60.869565217391305</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
+        <f>(D7*3+E7)</f>
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D7" s="2">
@@ -1232,22 +1235,22 @@
         <v>16</v>
       </c>
       <c r="I7" s="2">
-        <f>SUM(G7,-H7)</f>
+        <f>(G7-H7)</f>
         <v>8</v>
       </c>
       <c r="J7" s="2">
-        <f>AVERAGE(C7,D7)</f>
-        <v>10</v>
+        <f>(C7*100/B7)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
+        <f>(D8*3+E8)</f>
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D8" s="2">
@@ -1266,22 +1269,22 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <f>SUM(G8,-H8)</f>
+        <f>(G8-H8)</f>
         <v>4</v>
       </c>
       <c r="J8" s="2">
-        <f>AVERAGE(C8,D8)</f>
-        <v>10</v>
+        <f>(C8*100/B8)</f>
+        <v>60.869565217391305</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
+        <f>(D9*3+E9)</f>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D9" s="2">
@@ -1300,22 +1303,22 @@
         <v>17</v>
       </c>
       <c r="I9" s="2">
-        <f>SUM(G9,-H9)</f>
+        <f>(G9-H9)</f>
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <f>AVERAGE(C9,D9)</f>
-        <v>9</v>
+        <f>(C9*100/B9)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
+        <f>(D10*3+E10)</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D10" s="2">
@@ -1334,22 +1337,22 @@
         <v>15</v>
       </c>
       <c r="I10" s="2">
-        <f>SUM(G10,-H10)</f>
+        <f>(G10-H10)</f>
         <v>-1</v>
       </c>
       <c r="J10" s="2">
-        <f>AVERAGE(C10,D10)</f>
-        <v>9</v>
+        <f>(C10*100/B10)</f>
+        <v>82.352941176470594</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
+        <f>(D11*3+E11)</f>
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D11" s="2">
@@ -1368,22 +1371,22 @@
         <v>12</v>
       </c>
       <c r="I11" s="2">
-        <f>SUM(G11,-H11)</f>
+        <f>(G11-H11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>AVERAGE(C11,D11)</f>
-        <v>9</v>
+        <f>(C11*100/B11)</f>
+        <v>87.5</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
+        <f>(D12*3+E12)</f>
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D12" s="2">
@@ -1402,12 +1405,12 @@
         <v>23</v>
       </c>
       <c r="I12" s="2">
-        <f>SUM(G12,-H12)</f>
+        <f>(G12-H12)</f>
         <v>-5</v>
       </c>
       <c r="J12" s="2">
-        <f>AVERAGE(C12,D12)</f>
-        <v>9.5</v>
+        <f>(C12*100/B12)</f>
+        <v>87.5</v>
       </c>
       <c r="K12" s="1"/>
     </row>
